--- a/biology/Médecine/Canal_alvéolaire/Canal_alvéolaire.xlsx
+++ b/biology/Médecine/Canal_alvéolaire/Canal_alvéolaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Canal_alv%C3%A9olaire</t>
+          <t>Canal_alvéolaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les canaux alvéolaires ou canaux dentaires postérieurs) sont des canaux osseux situés dans le corps du maxillaire qui s'ouvrent sur la face infratemporale du corps du maxillaire au dessus de l'éminence du maxillaire.
 Ils sont au nombre de deux ou trois :
